--- a/app/Отчеты/Квитанции доверие за капремонт.xlsx
+++ b/app/Отчеты/Квитанции доверие за капремонт.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -76,9 +81,6 @@
   </si>
   <si>
     <t>Площадь (кв. м):  ${lc.chars_str}</t>
-  </si>
-  <si>
-    <t>Начислено за  ${lc.date}  г. :</t>
   </si>
   <si>
     <t>Вид платежа</t>
@@ -183,9 +185,6 @@
   <si>
     <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до ${lc.payDay}.                                                                            
 Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-908-564-80-32 (Набокин В.И.)                                                     </t>
-  </si>
-  <si>
-    <t>${Group.percent}</t>
   </si>
   <si>
     <t>К оплате всего :${lc.percent}</t>
@@ -246,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -704,12 +703,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
@@ -728,12 +726,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -754,9 +748,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="5" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -833,7 +825,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -871,6 +862,36 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -892,35 +913,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1319,17 +1369,17 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="100" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="100" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" style="100" customWidth="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="25" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
@@ -1341,861 +1391,817 @@
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1">
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="28"/>
-    </row>
-    <row r="2" spans="1:18" ht="87" customHeight="1">
-      <c r="A2"/>
-      <c r="B2" s="3"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
       <c r="I2"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="85"/>
-      <c r="M2" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1">
-      <c r="A3"/>
-      <c r="B3" s="3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="89"/>
+      <c r="M2" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="2"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
       <c r="I3"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="75" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="P3" s="76" t="s">
+      <c r="N3" s="67"/>
+      <c r="P3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="84"/>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4"/>
-      <c r="B4" s="3"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="R3" s="88"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="2"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
       <c r="I4"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="72" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-    </row>
-    <row r="5" spans="1:18" ht="35.25" thickBot="1">
+      <c r="N4" s="67"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+    </row>
+    <row r="5" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
       <c r="I5"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="31" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
       <c r="I6"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="32" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
       <c r="I7"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="32" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75">
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8"/>
-      <c r="C8" s="10"/>
-      <c r="D8"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="2"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
       <c r="I8"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="32" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="34" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1">
+    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9"/>
-      <c r="G9" s="10"/>
-      <c r="H9"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="90"/>
       <c r="I9"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="3.95" customHeight="1">
+      <c r="J9" s="23"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10"/>
-      <c r="G10" s="10"/>
-      <c r="H10"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="90"/>
       <c r="I10"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="21"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="J10" s="23"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11"/>
-      <c r="G11" s="10"/>
-      <c r="H11"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="90"/>
       <c r="I11"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1">
+      <c r="J11" s="23"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12"/>
-      <c r="G12" s="10"/>
-      <c r="H12"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="90"/>
       <c r="I12"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="J12" s="23"/>
+      <c r="K12" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="90"/>
       <c r="I13"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="86"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="45"/>
+    </row>
+    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="80"/>
+      <c r="N26" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="54"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="107"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="82"/>
+      <c r="N28" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="54"/>
+    </row>
+    <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="77"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="21"/>
-    </row>
-    <row r="14" spans="1:18" s="27" customFormat="1" ht="3.95" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="82"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="50"/>
-    </row>
-    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-    </row>
-    <row r="26" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.75">
-      <c r="A27" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="59"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75">
-      <c r="A28" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="95"/>
-      <c r="N28" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="O28" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="R28" s="63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A29" s="65" t="s">
+    </row>
+    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+    </row>
+    <row r="32" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+    </row>
+    <row r="34" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="59"/>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="90"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="R30" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-    </row>
-    <row r="32" spans="1:19" s="69" customFormat="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-    </row>
-    <row r="34" spans="1:18" s="69" customFormat="1">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-    </row>
-    <row r="35" spans="1:18" s="69" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="36" spans="1:18">
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-    </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1"/>
-    <row r="39" spans="1:18" ht="15" customHeight="1"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+    </row>
+    <row r="35" spans="1:18" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="L32:R33"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
@@ -2205,14 +2211,6 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие за капремонт.xlsx
+++ b/app/Отчеты/Квитанции доверие за капремонт.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>${lc.lc_regto}</t>
-  </si>
-  <si>
-    <t>${lc.barcode}</t>
   </si>
   <si>
     <t>Л/с ${lc.lc_num}</t>
@@ -236,6 +233,12 @@
   </si>
   <si>
     <t>Оплату производить только в Сбербанке России г.Иваново</t>
+  </si>
+  <si>
+    <t>${qrCode.pstring}</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -862,57 +865,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyBorder="1" applyProtection="1"/>
@@ -927,9 +879,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -937,9 +886,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -947,30 +893,90 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1367,17 +1373,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:H19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="100" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="100" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" style="100" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="82" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="82" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" style="82" customWidth="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.140625" style="25" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
@@ -1391,239 +1397,224 @@
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+    </row>
+    <row r="3" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
       <c r="I3"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="67"/>
-      <c r="P3" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="88"/>
+      <c r="K3" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="99"/>
+      <c r="M3" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4"/>
       <c r="J4" s="23"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="66" t="s">
-        <v>4</v>
+      <c r="M4" s="69" t="s">
+        <v>2</v>
       </c>
       <c r="N4" s="67"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-    </row>
-    <row r="5" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="P4" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="115"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
       <c r="I5"/>
       <c r="J5" s="23"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="67"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R5" s="114"/>
+    </row>
+    <row r="6" spans="1:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
       <c r="I6"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="28" t="s">
-        <v>9</v>
-      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
       <c r="I7"/>
       <c r="J7" s="23"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
-      <c r="R7" s="29" t="s">
-        <v>36</v>
+      <c r="R7" s="28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="90"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
       <c r="I8"/>
       <c r="J8" s="23"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="90"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
       <c r="I9"/>
       <c r="J9" s="23"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="27" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="90"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="73"/>
       <c r="I10"/>
       <c r="J10" s="23"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="90"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="73"/>
       <c r="I11"/>
       <c r="J11" s="23"/>
       <c r="K11" s="3"/>
@@ -1635,510 +1626,508 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="90"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="73"/>
       <c r="I12"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="90"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="73"/>
       <c r="I13"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="9" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="73"/>
+      <c r="I14"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="31" t="s">
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="86" t="s">
+      <c r="Q17" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="86"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="101"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
       <c r="I18" s="37"/>
       <c r="J18" s="34"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="36"/>
+      <c r="M18" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
-      <c r="R18" s="37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="39"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="34"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="34"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41" t="s">
-        <v>9</v>
-      </c>
+      <c r="M20" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
-      <c r="G21" s="103"/>
+      <c r="G21" s="84"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="34"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="40"/>
-      <c r="R21" s="43" t="s">
-        <v>36</v>
+      <c r="R21" s="41" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
-      <c r="G22" s="103"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="34"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="34"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="40"/>
-      <c r="R23" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="103"/>
+      <c r="R23" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="34"/>
       <c r="K24" s="38"/>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="38"/>
+      <c r="M24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="45"/>
-    </row>
-    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="79" t="s">
+      <c r="Q25" s="40"/>
+      <c r="R25" s="45"/>
+    </row>
+    <row r="26" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="52"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="110"/>
+      <c r="N27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="M26" s="80"/>
-      <c r="N26" s="47" t="s">
+      <c r="O27" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="P27" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="47" t="s">
+      <c r="Q27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="47" t="s">
+      <c r="R27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="48" t="s">
+      <c r="S27" t="s">
         <v>24</v>
       </c>
-      <c r="S26" t="s">
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="54"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
       <c r="J28" s="34"/>
-      <c r="K28" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="82"/>
-      <c r="N28" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" s="58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="54"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="34"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="54"/>
+      <c r="K29" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="113"/>
+      <c r="N29" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="58" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="59"/>
+      <c r="A30" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="34"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="77"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="R30" s="65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="54"/>
+    </row>
+    <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="51"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="53"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="90"/>
       <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
       <c r="I31" s="59"/>
       <c r="J31" s="34"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-    </row>
-    <row r="32" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K31" s="60"/>
+      <c r="L31" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="105"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+    </row>
+    <row r="33" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="72"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -2146,21 +2135,21 @@
       <c r="I33" s="16"/>
       <c r="J33" s="23"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-    </row>
-    <row r="34" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90" t="s">
-        <v>1</v>
-      </c>
+      <c r="L33" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -2168,49 +2157,71 @@
       <c r="I34" s="16"/>
       <c r="J34" s="23"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-    </row>
-    <row r="35" spans="1:18" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-    </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+    </row>
+    <row r="35" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+    </row>
+    <row r="36" spans="1:18" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+    </row>
+    <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="L32:R33"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L33:R34"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие за капремонт.xlsx
+++ b/app/Отчеты/Квитанции доверие за капремонт.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -240,6 +240,9 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>|</t>
+  </si>
 </sst>
 </file>
 
@@ -248,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -374,6 +377,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -706,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -909,6 +919,51 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -930,53 +985,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1373,18 +1387,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="82" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="82" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" style="82" customWidth="1"/>
-    <col min="9" max="9" width="2" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="82" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="82" hidden="1" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" style="82" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="2.140625" style="25" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
@@ -1394,10 +1408,11 @@
     <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.85546875" style="1"/>
+    <col min="20" max="20" width="114.42578125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>47</v>
       </c>
@@ -1405,7 +1420,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1432,11 @@
       <c r="G2" s="73"/>
       <c r="H2" s="73"/>
       <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1429,20 +1447,23 @@
       <c r="H3" s="73"/>
       <c r="I3"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="93" t="s">
+      <c r="L3" s="114"/>
+      <c r="M3" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="U3" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="73"/>
       <c r="B4" s="2"/>
       <c r="C4" s="73"/>
@@ -1466,8 +1487,11 @@
         <v>5</v>
       </c>
       <c r="R4" s="115"/>
-    </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="73"/>
       <c r="B5" s="2"/>
       <c r="C5" s="73"/>
@@ -1489,9 +1513,12 @@
       <c r="Q5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="114"/>
-    </row>
-    <row r="6" spans="1:18" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="93"/>
+      <c r="U5" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="73"/>
@@ -1509,8 +1536,11 @@
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
       <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U6" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="73"/>
@@ -1533,8 +1563,11 @@
       <c r="R7" s="28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U7" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -1557,8 +1590,11 @@
       <c r="R8" s="29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U8" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
@@ -1581,8 +1617,11 @@
       <c r="R9" s="29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1605,8 +1644,11 @@
       <c r="R10" s="30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1625,8 +1667,11 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U11" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1645,8 +1690,11 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1657,18 +1705,21 @@
       <c r="H13" s="73"/>
       <c r="I13"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="98" t="s">
+      <c r="K13" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="U13" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="75"/>
@@ -1689,8 +1740,11 @@
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1709,40 +1763,46 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="21"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U15" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="77"/>
       <c r="B16" s="77"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="17"/>
       <c r="J16" s="23"/>
       <c r="K16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="9"/>
-      <c r="M16" s="95" t="s">
+      <c r="M16" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="U16" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="78"/>
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
       <c r="F17" s="80"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
       <c r="K17" s="35"/>
@@ -1755,12 +1815,15 @@
       <c r="P17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="97" t="s">
+      <c r="Q17" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="97"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="112"/>
+      <c r="U17" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
       <c r="B18" s="76"/>
       <c r="C18" s="81"/>
@@ -1779,8 +1842,11 @@
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U18" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
       <c r="B19" s="76"/>
       <c r="C19" s="81"/>
@@ -1801,30 +1867,36 @@
       <c r="R19" s="37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="76"/>
       <c r="B20" s="76"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="39"/>
       <c r="J20" s="34"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="103" t="s">
+      <c r="M20" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="U20" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
       <c r="B21" s="76"/>
       <c r="C21" s="52"/>
@@ -1847,8 +1919,11 @@
       <c r="R21" s="41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U21" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="76"/>
       <c r="B22" s="76"/>
       <c r="C22" s="52"/>
@@ -1871,8 +1946,11 @@
       <c r="R22" s="43" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U22" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="76"/>
       <c r="B23" s="76"/>
       <c r="C23" s="52"/>
@@ -1895,8 +1973,11 @@
       <c r="R23" s="43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="76"/>
       <c r="B24" s="76"/>
       <c r="C24" s="52"/>
@@ -1919,8 +2000,11 @@
       <c r="R24" s="44" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
       <c r="B25" s="76"/>
       <c r="C25" s="75"/>
@@ -1941,8 +2025,11 @@
       </c>
       <c r="Q25" s="40"/>
       <c r="R25" s="45"/>
-    </row>
-    <row r="26" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="76"/>
@@ -1961,11 +2048,14 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="86"/>
       <c r="E27" s="86"/>
       <c r="F27" s="86"/>
@@ -1974,10 +2064,10 @@
       <c r="I27" s="49"/>
       <c r="J27" s="34"/>
       <c r="K27" s="46"/>
-      <c r="L27" s="109" t="s">
+      <c r="L27" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="110"/>
+      <c r="M27" s="104"/>
       <c r="N27" s="47" t="s">
         <v>19</v>
       </c>
@@ -1996,8 +2086,11 @@
       <c r="S27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U27" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>25</v>
       </c>
@@ -2018,11 +2111,14 @@
       <c r="P28" s="52"/>
       <c r="Q28" s="52"/>
       <c r="R28" s="54"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U28" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
       <c r="F29" s="52"/>
@@ -2033,10 +2129,10 @@
       <c r="K29" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="112" t="s">
+      <c r="L29" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="113"/>
+      <c r="M29" s="107"/>
       <c r="N29" s="56" t="s">
         <v>28</v>
       </c>
@@ -2052,8 +2148,11 @@
       <c r="R29" s="58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="89" t="s">
         <v>1</v>
       </c>
@@ -2074,12 +2173,15 @@
       <c r="P30" s="52"/>
       <c r="Q30" s="52"/>
       <c r="R30" s="54"/>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="51"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="90"/>
       <c r="F31" s="59"/>
       <c r="G31" s="91"/>
@@ -2087,11 +2189,11 @@
       <c r="I31" s="59"/>
       <c r="J31" s="34"/>
       <c r="K31" s="60"/>
-      <c r="L31" s="104" t="s">
+      <c r="L31" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="M31" s="105"/>
-      <c r="N31" s="106"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="100"/>
       <c r="O31" s="64" t="s">
         <v>34</v>
       </c>
@@ -2102,8 +2204,11 @@
       <c r="R31" s="65" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
@@ -2122,8 +2227,11 @@
       <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
       <c r="R32" s="59"/>
-    </row>
-    <row r="33" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2135,17 +2243,20 @@
       <c r="I33" s="16"/>
       <c r="J33" s="23"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="100" t="s">
+      <c r="L33" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="U33" s="117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2157,15 +2268,18 @@
       <c r="I34" s="16"/>
       <c r="J34" s="23"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-    </row>
-    <row r="35" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="U34" s="116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="73" t="s">
         <v>1</v>
       </c>
@@ -2187,7 +2301,7 @@
       <c r="Q35" s="71"/>
       <c r="R35" s="71"/>
     </row>
-    <row r="36" spans="1:18" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="92"/>
       <c r="B36" s="92"/>
       <c r="C36" s="92"/>
@@ -2197,14 +2311,22 @@
       <c r="G36" s="92"/>
       <c r="H36" s="92"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="L33:R34"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="M20:R20"/>
@@ -2214,14 +2336,6 @@
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="L29:M29"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие за капремонт.xlsx
+++ b/app/Отчеты/Квитанции доверие за капремонт.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\music\.platypusreports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="558" yWindow="558" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
@@ -178,10 +178,6 @@
       </rPr>
       <t>}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до ${lc.payDay}.                                                                            
-Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-908-564-80-32 (Набокин В.И.)                                                     </t>
   </si>
   <si>
     <t>К оплате всего :${lc.percent}</t>
@@ -243,15 +239,19 @@
   <si>
     <t>|</t>
   </si>
+  <si>
+    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до ${lc.payDay}.                                                                            
+Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-905-109-40-73                                                 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -922,75 +922,75 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1389,38 +1389,38 @@
   </sheetPr>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="82" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="82" hidden="1" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" style="82" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.68359375" style="82" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="27.68359375" style="82" hidden="1" customWidth="1"/>
+    <col min="3" max="8" width="11.578125" style="82" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="11.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="114.42578125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="2.15625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="5.68359375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.15625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.15625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.578125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.15625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.26171875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.26171875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="114.41796875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="0.75" customHeight="1">
       <c r="A1" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1432,11 +1432,11 @@
       <c r="G2" s="73"/>
       <c r="H2" s="73"/>
       <c r="J2" s="23"/>
-      <c r="U2" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="87" customHeight="1">
       <c r="A3" s="73"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1447,23 +1447,23 @@
       <c r="H3" s="73"/>
       <c r="I3"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="102"/>
+      <c r="M3" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="114"/>
-      <c r="M3" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="U3" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="U3" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18" customHeight="1">
       <c r="A4" s="73"/>
       <c r="B4" s="2"/>
       <c r="C4" s="73"/>
@@ -1483,15 +1483,15 @@
       <c r="P4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="115" t="s">
+      <c r="Q4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="115"/>
-      <c r="U4" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="103"/>
+      <c r="U4" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1">
       <c r="A5" s="73"/>
       <c r="B5" s="2"/>
       <c r="C5" s="73"/>
@@ -1514,11 +1514,11 @@
         <v>6</v>
       </c>
       <c r="R5" s="93"/>
-      <c r="U5" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U5" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="8.25" customHeight="1" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="73"/>
@@ -1536,11 +1536,11 @@
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
       <c r="R6" s="8"/>
-      <c r="U6" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U6" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="73"/>
@@ -1563,11 +1563,11 @@
       <c r="R7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U7" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.3">
       <c r="A8" s="2"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -1590,11 +1590,11 @@
       <c r="R8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U8" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.3">
       <c r="A9" s="2"/>
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
@@ -1617,11 +1617,11 @@
       <c r="R9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.6" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1635,7 +1635,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
@@ -1644,11 +1644,11 @@
       <c r="R10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="4" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1667,11 +1667,11 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="18"/>
-      <c r="U11" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1690,11 +1690,11 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="18"/>
-      <c r="U12" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="34" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1705,21 +1705,21 @@
       <c r="H13" s="73"/>
       <c r="I13"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="U13" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K13" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="U13" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="75"/>
@@ -1740,11 +1740,11 @@
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="18"/>
-      <c r="U14" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="22" customFormat="1" ht="4" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1763,46 +1763,46 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="21"/>
-      <c r="U15" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="77"/>
       <c r="B16" s="77"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
       <c r="I16" s="17"/>
       <c r="J16" s="23"/>
       <c r="K16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="9"/>
-      <c r="M16" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="U16" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="U16" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.6">
       <c r="A17" s="78"/>
       <c r="B17" s="78"/>
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
       <c r="F17" s="80"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
       <c r="K17" s="35"/>
@@ -1815,15 +1815,15 @@
       <c r="P17" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="112" t="s">
+      <c r="Q17" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="112"/>
-      <c r="U17" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="100"/>
+      <c r="U17" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.6">
       <c r="A18" s="76"/>
       <c r="B18" s="76"/>
       <c r="C18" s="81"/>
@@ -1842,11 +1842,11 @@
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
-      <c r="U18" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U18" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.6">
       <c r="A19" s="76"/>
       <c r="B19" s="76"/>
       <c r="C19" s="81"/>
@@ -1867,36 +1867,36 @@
       <c r="R19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="U19" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="29.1" customHeight="1" thickBot="1">
       <c r="A20" s="76"/>
       <c r="B20" s="76"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
       <c r="I20" s="39"/>
       <c r="J20" s="34"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="97" t="s">
+      <c r="M20" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="U20" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="U20" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.6">
       <c r="A21" s="76"/>
       <c r="B21" s="76"/>
       <c r="C21" s="52"/>
@@ -1919,11 +1919,11 @@
       <c r="R21" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U21" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.6">
       <c r="A22" s="76"/>
       <c r="B22" s="76"/>
       <c r="C22" s="52"/>
@@ -1946,11 +1946,11 @@
       <c r="R22" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="U22" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U22" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.6">
       <c r="A23" s="76"/>
       <c r="B23" s="76"/>
       <c r="C23" s="52"/>
@@ -1973,11 +1973,11 @@
       <c r="R23" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="U23" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.9" thickBot="1">
       <c r="A24" s="76"/>
       <c r="B24" s="76"/>
       <c r="C24" s="52"/>
@@ -1991,7 +1991,7 @@
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
@@ -2000,11 +2000,11 @@
       <c r="R24" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="U24" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="27.75" customHeight="1">
       <c r="A25" s="76"/>
       <c r="B25" s="76"/>
       <c r="C25" s="75"/>
@@ -2025,11 +2025,11 @@
       </c>
       <c r="Q25" s="40"/>
       <c r="R25" s="45"/>
-      <c r="U25" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="76"/>
@@ -2048,14 +2048,14 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="U26" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30.3" thickBot="1">
       <c r="A27" s="52"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
       <c r="D27" s="86"/>
       <c r="E27" s="86"/>
       <c r="F27" s="86"/>
@@ -2064,10 +2064,10 @@
       <c r="I27" s="49"/>
       <c r="J27" s="34"/>
       <c r="K27" s="46"/>
-      <c r="L27" s="103" t="s">
+      <c r="L27" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="104"/>
+      <c r="M27" s="114"/>
       <c r="N27" s="47" t="s">
         <v>19</v>
       </c>
@@ -2086,11 +2086,11 @@
       <c r="S27" t="s">
         <v>24</v>
       </c>
-      <c r="U27" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U27" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.6">
       <c r="A28" s="51" t="s">
         <v>25</v>
       </c>
@@ -2111,14 +2111,14 @@
       <c r="P28" s="52"/>
       <c r="Q28" s="52"/>
       <c r="R28" s="54"/>
-      <c r="U28" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U28" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.6">
       <c r="A29" s="87"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
       <c r="F29" s="52"/>
@@ -2129,10 +2129,10 @@
       <c r="K29" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="106" t="s">
+      <c r="L29" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="107"/>
+      <c r="M29" s="117"/>
       <c r="N29" s="56" t="s">
         <v>28</v>
       </c>
@@ -2148,11 +2148,11 @@
       <c r="R29" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="U29" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.9" thickBot="1">
       <c r="A30" s="89" t="s">
         <v>1</v>
       </c>
@@ -2173,15 +2173,15 @@
       <c r="P30" s="52"/>
       <c r="Q30" s="52"/>
       <c r="R30" s="54"/>
-      <c r="U30" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.9" thickBot="1">
       <c r="A31" s="51"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
       <c r="E31" s="90"/>
       <c r="F31" s="59"/>
       <c r="G31" s="91"/>
@@ -2189,11 +2189,11 @@
       <c r="I31" s="59"/>
       <c r="J31" s="34"/>
       <c r="K31" s="60"/>
-      <c r="L31" s="98" t="s">
+      <c r="L31" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="M31" s="99"/>
-      <c r="N31" s="100"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="110"/>
       <c r="O31" s="64" t="s">
         <v>34</v>
       </c>
@@ -2204,11 +2204,11 @@
       <c r="R31" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="5.0999999999999996" customHeight="1">
       <c r="A32" s="51"/>
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
@@ -2227,11 +2227,11 @@
       <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
       <c r="R32" s="59"/>
-      <c r="U32" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="63" customFormat="1">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2243,20 +2243,20 @@
       <c r="I33" s="16"/>
       <c r="J33" s="23"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="U33" s="117" t="s">
+      <c r="L33" s="104" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="U33" s="95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2268,18 +2268,18 @@
       <c r="I34" s="16"/>
       <c r="J34" s="23"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="U34" s="116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="U34" s="94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="63" customFormat="1">
       <c r="A35" s="73" t="s">
         <v>1</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="Q35" s="71"/>
       <c r="R35" s="71"/>
     </row>
-    <row r="36" spans="1:21" s="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" s="63" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="92"/>
       <c r="B36" s="92"/>
       <c r="C36" s="92"/>
@@ -2311,22 +2311,14 @@
       <c r="G36" s="92"/>
       <c r="H36" s="92"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21">
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="39" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:21" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:21" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="L33:R34"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="M20:R20"/>
@@ -2336,6 +2328,14 @@
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="L29:M29"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
